--- a/前端职业规划矩阵-pineapple.xlsx
+++ b/前端职业规划矩阵-pineapple.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/pineapple/daily/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78808700-DE79-7A4F-A912-219843AFD0B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA2500C-2BC6-E948-8B79-938BDB89F13C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="28800" windowHeight="13460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="89">
   <si>
     <t>前端工程师的能力养成矩阵 - 职业规划 - 技能点亮复盘图</t>
   </si>
@@ -963,10 +963,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>每天睡前背15分钟单词</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>英语词汇量提升</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -1087,6 +1083,10 @@
   </si>
   <si>
     <t>指标量化(最少)</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天背15分钟单词</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -2202,44 +2202,17 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2249,6 +2222,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2283,37 +2259,82 @@
     <xf numFmtId="0" fontId="13" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2323,9 +2344,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2358,55 +2376,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2713,33 +2713,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="35" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
       <c r="Z1" s="23"/>
     </row>
     <row r="2" spans="1:26" ht="35" customHeight="1">
@@ -2781,37 +2781,37 @@
       <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="28">
         <v>1</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
       <c r="K3" s="16">
         <v>1</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
       <c r="W3" s="16"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
       <c r="Z3" s="23"/>
     </row>
     <row r="4" spans="1:26" ht="35" customHeight="1">
@@ -2821,35 +2821,35 @@
       <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="16">
         <v>3</v>
       </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="14">
         <v>1</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="16">
         <v>1</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="16"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
       <c r="Q4" s="16"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
       <c r="T4" s="16"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
       <c r="Z4" s="23"/>
     </row>
     <row r="5" spans="1:26" ht="35" customHeight="1">
@@ -2859,35 +2859,35 @@
       <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="14">
         <v>1</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="16">
         <v>1</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="16"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
       <c r="Q5" s="16"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
       <c r="T5" s="16"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
       <c r="W5" s="16"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
       <c r="Z5" s="23"/>
     </row>
     <row r="6" spans="1:26" ht="35" customHeight="1">
@@ -2897,35 +2897,35 @@
       <c r="B6" s="16">
         <v>1</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="16">
         <v>2</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="16">
         <v>2</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="16"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
       <c r="T6" s="16"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
       <c r="W6" s="16"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
       <c r="Z6" s="23"/>
     </row>
     <row r="7" spans="1:26" ht="35" customHeight="1">
@@ -2935,35 +2935,35 @@
       <c r="B7" s="16">
         <v>1</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="16">
         <v>3</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="16">
         <v>3</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
       <c r="N7" s="16"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
       <c r="T7" s="16"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="75"/>
       <c r="W7" s="16"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
       <c r="Z7" s="23"/>
     </row>
     <row r="8" spans="1:26" ht="35" customHeight="1">
@@ -2973,35 +2973,35 @@
       <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="16">
         <v>3</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="16">
         <v>3</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
       <c r="K8" s="16">
         <v>4</v>
       </c>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
       <c r="Q8" s="16"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
       <c r="T8" s="16"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
       <c r="Z8" s="23"/>
     </row>
     <row r="9" spans="1:26" ht="35" customHeight="1">
@@ -3011,35 +3011,35 @@
       <c r="B9" s="17">
         <v>1</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="16">
         <v>3</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="16">
         <v>3</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
       <c r="K9" s="16">
         <v>4</v>
       </c>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
       <c r="T9" s="16"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="75"/>
       <c r="W9" s="16"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
       <c r="Z9" s="23"/>
     </row>
     <row r="10" spans="1:26" ht="35" customHeight="1">
@@ -3127,37 +3127,37 @@
       <c r="B11" s="17">
         <v>1</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="16">
         <v>2</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="16">
         <v>2</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="16">
         <v>2</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
       <c r="N11" s="16"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
       <c r="T11" s="16"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="16"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
       <c r="Z11" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="35" customHeight="1">
@@ -3167,35 +3167,35 @@
       <c r="B12" s="17">
         <v>1</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="16">
         <v>2</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="16">
         <v>2</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="16">
         <v>2</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
       <c r="N12" s="16"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
       <c r="Q12" s="16"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
       <c r="T12" s="16"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="16"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
       <c r="Z12" s="23"/>
     </row>
     <row r="13" spans="1:26" ht="35" customHeight="1">
@@ -3205,35 +3205,35 @@
       <c r="B13" s="16">
         <v>1</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="16">
         <v>2</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="16">
         <v>2</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="16">
         <v>2</v>
       </c>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
       <c r="N13" s="16"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
       <c r="T13" s="16"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="16"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
       <c r="Z13" s="23"/>
     </row>
     <row r="14" spans="1:26" ht="35" customHeight="1">
@@ -3243,35 +3243,35 @@
       <c r="B14" s="16">
         <v>1</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="16">
         <v>2</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="16">
         <v>2</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="16">
         <v>2</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
       <c r="N14" s="16"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
       <c r="Q14" s="16"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
       <c r="T14" s="16"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="16"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
       <c r="Z14" s="23"/>
     </row>
     <row r="15" spans="1:26" ht="35" customHeight="1">
@@ -3281,35 +3281,35 @@
       <c r="B15" s="16">
         <v>1</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="16">
         <v>2</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
       <c r="H15" s="16">
         <v>2</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="16">
         <v>2</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
       <c r="N15" s="16"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
       <c r="Q15" s="16"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
       <c r="T15" s="16"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="16"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
       <c r="Z15" s="23"/>
     </row>
     <row r="16" spans="1:26" ht="35" customHeight="1">
@@ -3317,29 +3317,29 @@
         <v>20</v>
       </c>
       <c r="B16" s="16"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="16"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
       <c r="N16" s="16"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
       <c r="Q16" s="16"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
       <c r="T16" s="16"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
       <c r="W16" s="16"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
       <c r="Z16" s="23"/>
     </row>
     <row r="17" spans="1:26" ht="35" customHeight="1">
@@ -3347,29 +3347,29 @@
         <v>21</v>
       </c>
       <c r="B17" s="16"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="16"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
       <c r="N17" s="16"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
       <c r="Q17" s="16"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
       <c r="T17" s="16"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
       <c r="W17" s="16"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
       <c r="Z17" s="23"/>
     </row>
     <row r="18" spans="1:26" ht="35" customHeight="1">
@@ -3377,29 +3377,29 @@
         <v>22</v>
       </c>
       <c r="B18" s="16"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="16"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
       <c r="Q18" s="16"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
       <c r="T18" s="16"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="16"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
       <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="1:26" ht="35" customHeight="1">
@@ -3409,61 +3409,61 @@
       <c r="B19" s="16">
         <v>1</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="16">
         <v>1</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="16">
         <v>1</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="28">
         <v>1</v>
       </c>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
       <c r="Q19" s="16"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
       <c r="T19" s="16"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
       <c r="W19" s="16"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
       <c r="Z19" s="23"/>
     </row>
     <row r="20" spans="1:26" ht="35" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
       <c r="Z20" s="23"/>
@@ -3472,78 +3472,78 @@
       <c r="A21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
       <c r="Z21" s="23"/>
     </row>
     <row r="22" spans="1:26" ht="26" customHeight="1">
       <c r="A22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
       <c r="Z22" s="23"/>
     </row>
     <row r="23" spans="1:26" ht="26" customHeight="1">
       <c r="A23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
       <c r="N23" s="35"/>
       <c r="O23" s="35"/>
       <c r="P23" s="35"/>
@@ -3587,151 +3587,151 @@
       <c r="Z24" s="23"/>
     </row>
     <row r="25" spans="1:26" ht="26" customHeight="1">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67" t="s">
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="68" t="s">
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="67"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
       <c r="X25" s="23"/>
       <c r="Y25" s="23"/>
       <c r="Z25" s="23"/>
     </row>
     <row r="26" spans="1:26" ht="26" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="67"/>
-      <c r="W26" s="67"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
       <c r="X26" s="23"/>
       <c r="Y26" s="23"/>
       <c r="Z26" s="23"/>
     </row>
     <row r="27" spans="1:26" ht="26" customHeight="1">
-      <c r="A27" s="59"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="67"/>
-      <c r="W27" s="67"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
       <c r="X27" s="23"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
     </row>
     <row r="28" spans="1:26" ht="56" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="67"/>
-      <c r="O28" s="67"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
       <c r="X28" s="23"/>
       <c r="Y28" s="23"/>
       <c r="Z28" s="23"/>
     </row>
     <row r="29" spans="1:26" ht="26" customHeight="1">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="49"/>
       <c r="X29" s="23"/>
       <c r="Y29" s="23"/>
       <c r="Z29" s="23"/>
@@ -8666,6 +8666,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A20:W20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="X3:Y9"/>
+    <mergeCell ref="X11:Y19"/>
+    <mergeCell ref="I3:J9"/>
+    <mergeCell ref="O3:P9"/>
+    <mergeCell ref="U3:V9"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
     <mergeCell ref="A29:W29"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="F3:G9"/>
@@ -8682,33 +8709,6 @@
     <mergeCell ref="H25:M28"/>
     <mergeCell ref="N25:W28"/>
     <mergeCell ref="C3:D9"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A20:W20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="X3:Y9"/>
-    <mergeCell ref="X11:Y19"/>
-    <mergeCell ref="I3:J9"/>
-    <mergeCell ref="O3:P9"/>
-    <mergeCell ref="U3:V9"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8720,8 +8720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="92" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="92" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -8741,56 +8741,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="24" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="106" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="85"/>
+      <c r="H1" s="109" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
+      <c r="U1" s="103"/>
+      <c r="V1" s="103"/>
+    </row>
+    <row r="2" spans="1:47" ht="26" customHeight="1">
+      <c r="A2" s="89"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-    </row>
-    <row r="2" spans="1:47" ht="26" customHeight="1">
-      <c r="A2" s="97"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="108" t="s">
+      <c r="G2" s="47" t="s">
         <v>79</v>
-      </c>
-      <c r="G2" s="109" t="s">
-        <v>80</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>37</v>
@@ -8802,43 +8802,43 @@
         <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="U2" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="V2" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="W2" s="41" t="s">
         <v>73</v>
-      </c>
-      <c r="W2" s="41" t="s">
-        <v>74</v>
       </c>
       <c r="X2" s="41"/>
       <c r="Y2" s="41"/>
@@ -8866,41 +8866,45 @@
       <c r="AU2" s="41"/>
     </row>
     <row r="3" spans="1:47" ht="26" customHeight="1">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="91" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="110" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="75" t="s">
-        <v>62</v>
+        <v>88</v>
+      </c>
+      <c r="L3" s="106" t="s">
+        <v>61</v>
       </c>
       <c r="M3" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>75</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -8908,30 +8912,32 @@
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:47" ht="26" customHeight="1">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" s="80"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="111"/>
       <c r="I4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="107"/>
+      <c r="M4" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="44" t="s">
+        <v>75</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -8940,30 +8946,32 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:47" ht="26" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="80"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="111"/>
       <c r="I5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L5" s="76"/>
+        <v>84</v>
+      </c>
+      <c r="L5" s="107"/>
       <c r="M5" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>75</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -8972,14 +8980,14 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:47" ht="26" customHeight="1">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="81"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="3" t="s">
         <v>46</v>
       </c>
@@ -8987,13 +8995,15 @@
         <v>47</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" s="76"/>
+        <v>85</v>
+      </c>
+      <c r="L6" s="107"/>
       <c r="M6" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>75</v>
+      </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -9002,26 +9012,26 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:47" ht="26" customHeight="1">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="79" t="s">
-        <v>61</v>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="110" t="s">
+        <v>60</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="76"/>
+        <v>84</v>
+      </c>
+      <c r="L7" s="107"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -9032,24 +9042,24 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:47" ht="26" customHeight="1">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="80"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="111"/>
       <c r="I8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="76"/>
+        <v>74</v>
+      </c>
+      <c r="L8" s="107"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -9060,24 +9070,24 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:47" ht="26" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="81"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="76"/>
+        <v>88</v>
+      </c>
+      <c r="L9" s="107"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -9088,26 +9098,26 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:47" ht="26" customHeight="1">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="79" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="110" t="s">
         <v>48</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="76"/>
+        <v>84</v>
+      </c>
+      <c r="L10" s="107"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -9118,24 +9128,24 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:47" ht="26" customHeight="1">
-      <c r="A11" s="98"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="80"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="111"/>
       <c r="I11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="76"/>
+        <v>74</v>
+      </c>
+      <c r="L11" s="107"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -9146,24 +9156,24 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:47" ht="26" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="81"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="112"/>
       <c r="I12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="77"/>
+        <v>88</v>
+      </c>
+      <c r="L12" s="108"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -9174,27 +9184,27 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:47" ht="26" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="82" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="113" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="75" t="s">
-        <v>63</v>
+        <v>84</v>
+      </c>
+      <c r="L13" s="106" t="s">
+        <v>62</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -9206,24 +9216,24 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:47" ht="26" customHeight="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="82"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="113"/>
       <c r="I14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="76"/>
+        <v>74</v>
+      </c>
+      <c r="L14" s="107"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -9234,24 +9244,24 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:47" ht="26" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="82"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L15" s="76"/>
+        <v>88</v>
+      </c>
+      <c r="L15" s="107"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -9265,23 +9275,23 @@
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="79" t="s">
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="110" t="s">
         <v>50</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="76"/>
+        <v>84</v>
+      </c>
+      <c r="L16" s="107"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -9295,21 +9305,21 @@
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="40"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="80"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="111"/>
       <c r="I17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>55</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="76"/>
+        <v>74</v>
+      </c>
+      <c r="L17" s="107"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -9320,24 +9330,24 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" ht="26" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="76"/>
+        <v>88</v>
+      </c>
+      <c r="L18" s="107"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -9348,14 +9358,14 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" ht="26" customHeight="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="86"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="79"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="4"/>
@@ -9370,14 +9380,14 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" ht="26" customHeight="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="86"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="79"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -9392,14 +9402,14 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" ht="26" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="86"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="79"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="4"/>
@@ -9414,14 +9424,14 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" ht="26" customHeight="1">
-      <c r="A22" s="99"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="86"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="79"/>
       <c r="I22" s="4"/>
       <c r="J22" s="6"/>
       <c r="K22" s="8"/>
@@ -9436,20 +9446,20 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20" ht="26" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="94" t="s">
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="96"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -9460,14 +9470,14 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20" ht="26" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="86"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="4"/>
@@ -9482,14 +9492,14 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20" ht="26" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="110"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="86"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -9504,14 +9514,14 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20" ht="26" customHeight="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="86"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -9526,14 +9536,14 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20" ht="26" customHeight="1">
-      <c r="A27" s="99"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="86"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="4"/>
       <c r="J27" s="6"/>
       <c r="K27" s="8"/>
@@ -9548,20 +9558,20 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20" ht="26" customHeight="1">
-      <c r="A28" s="99"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="94" t="s">
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="96"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="102"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -9572,14 +9582,14 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="26" customHeight="1">
-      <c r="A29" s="99"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="86"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="79"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -9594,14 +9604,14 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20" ht="26" customHeight="1">
-      <c r="A30" s="99"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="86"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -9616,14 +9626,14 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" ht="26" customHeight="1">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="86"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="79"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -9638,14 +9648,14 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20" ht="26" customHeight="1">
-      <c r="A32" s="99"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="86"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="79"/>
       <c r="I32" s="4"/>
       <c r="J32" s="6"/>
       <c r="K32" s="8"/>
@@ -9660,26 +9670,26 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20" ht="24" customHeight="1">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85" t="s">
+      <c r="B33" s="92"/>
+      <c r="C33" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="73"/>
-      <c r="E33" s="85" t="s">
+      <c r="D33" s="104"/>
+      <c r="E33" s="92" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="43"/>
-      <c r="H33" s="87" t="s">
+      <c r="H33" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -9690,18 +9700,18 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20" ht="24" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="85"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="43"/>
       <c r="G34" s="42"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -9712,8 +9722,8 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20" ht="24" customHeight="1">
-      <c r="A35" s="83"/>
-      <c r="B35" s="84"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -9733,8 +9743,8 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="1:20" ht="24" customHeight="1">
-      <c r="A36" s="83"/>
-      <c r="B36" s="84"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -9755,8 +9765,8 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" ht="24" customHeight="1">
-      <c r="A37" s="83"/>
-      <c r="B37" s="84"/>
+      <c r="A37" s="90"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -13491,38 +13501,18 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C18:C32"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B18:B32"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="L3:L12"/>
+    <mergeCell ref="L13:L18"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="H31:H32"/>
@@ -13539,18 +13529,38 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="H23:H24"/>
     <mergeCell ref="H25:H26"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="L3:L12"/>
-    <mergeCell ref="L13:L18"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B18:B32"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C18:C32"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
